--- a/Cookbook_Details.xlsx
+++ b/Cookbook_Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t>Cookbook Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Java</t>
   </si>
   <si>
-    <t>knife bootstrap &lt;IP Address&gt; -x root –P &lt;password&gt; -r role[role_java] –d &lt;distribution&gt;</t>
-  </si>
-  <si>
     <t>It uses “ jdk-7u51-linux-x64.tar.gz” as installables</t>
   </si>
   <si>
@@ -78,21 +75,6 @@
     <t>Postgresql</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Knife bootstrap </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>172.16.1.154 –x root –P test4pass  -r role[role_java] –d rhel</t>
-    </r>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -102,14 +84,7 @@
     <t>Any version</t>
   </si>
   <si>
-    <t>User can install any tomcat version for RHEL 6.4. Make sure, you download "apache-tomcat-X.X.XX.tar.gz" for installation</t>
-  </si>
-  <si>
     <t>Dependency Cookbook</t>
-  </si>
-  <si>
-    <t>java
-openssl</t>
   </si>
   <si>
     <t>Verification</t>
@@ -121,24 +96,6 @@
   </si>
   <si>
     <t>9.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_tomcat] -d &lt;distribution&gt;  -j '{"source_path":"URL","base_version":"base_version","full_version":"full_version"}'
- where
-         IP : IP address of node where Tomcat need to install
-         Password : Root password of IP address of node
-         Distribution : Target distribution available
-         URL : HTTP path where tomcat tar.gz file avaiable.
-         base_version : Base version number of Tomcat version.
-         full_version : Full version number of Tomcat versipon </t>
-  </si>
-  <si>
-    <t>knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_postgresql] -d &lt;distribution&gt;  -j '{"source_path":"URL"}'
- where
-  IP : IP address of node where postgresql need to install
-  Password : Root password of IP address of node
-  Distribution : Target distribution available
-  URL : YUM repository path for postgresql RPMs</t>
   </si>
   <si>
     <t>YES</t>
@@ -201,89 +158,16 @@
     <t>2.1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Knife bootstrap 172.16.1.154 –x root –P test4pass  -r role[role_biginsights] –d rhel  -j '{"source_path":"http://172.16.1.153","sso_domain":"domain1","node_name":"fat-tigris"}'                                                                                                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">SPSS Modeler Server v16.0 </t>
   </si>
   <si>
-    <t xml:space="preserve">knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_biginsights] -d &lt;distribution&gt;  -j '{"source_path":"URL","sso_domain":"SSO_DOMAIN","node_name":"NODE_NAME"}'    
-Where
-           IP : IP Adress of Target node.
-           password : root password od node. 
-           distribution : target distribution available
-           URL : HTTP path to download the .tar.gz file.
-           SSO_DOMAIN : SSO Domain name 
-           NODE_NAME : Fully qualified name of target name.Don't provid IP adress
-                                                          </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Command :  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_spss_modeler_16] -d &lt;distribution&gt;  -j '{"source_path":"URL","dirpath":"spss_modeler_server_home"}'
-Where
-      spss_modeler_server_home : SPSS Modeler Server Home Directory.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_spss_modeler_16] -d rhel -j '{"source_path":"http://172.16.1.153","dirpath":"/usr/IBM/SPSS/ModelerServer/16.0"}'
-      </t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>SPSS  Analytics Server v1.0.1.0.112</t>
   </si>
   <si>
-    <t>knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_spss_analytics] -d rhel -j '{"source_path":"http://172.16.1.153","dirpath":"/usr/IBM/SPSS/AnalyticsServer"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPSS Modeler Batch Server v16.0 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Command :  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_spss_batch_16] -d &lt;distribution&gt;  -j '{"source_path":"URL","dirpath":"spss_batch_server_home"}'
-Where
-                spss_batch_server_home : SPSS Modeler Batch Server Home Directory.</t>
-    </r>
   </si>
   <si>
     <t>{
@@ -398,17 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve"> {
- "name": "role_tomcat",
-   "description": "Cookbook to install Tomcat",
-   "json_class": "Chef::Role",
-   "default_attributes": {    },
-   "override_attributes": {    },
-   "chef_type": "role",
-   "run_list": [   "recipe[java::oracle]",   "recipe[tomcat-master]"    ],
-    "env_run_lists": {    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {
  "name": "role_postgresql",
    "description": "postgresql Cookbook",
    "json_class": "Chef::Role",
@@ -421,29 +294,9 @@
   </si>
   <si>
     <t xml:space="preserve">
-[root@tigris2 jvm]# ps -aef | grep -i mongodb
-mongod      1307       1  0 Aug14 ?        00:53:00 /usr/bin/mongod --config /etc/mongodb.conf
-root      354948    1443  0 17:21 pts/0    00:00:00 grep -i mongodb
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Command : ps -aef |grep -i modeler
 It should show output as
 root     18883     1  0 20:34 ?        00:00:00 /usr/IBM/SPSS/ModelerServer/16.0/modelersrv_16_0 -server
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command : ps -aef |grep -i analytics
-It should show output as
-root     26967     1  0 13:26 pts/0    00:00:02 java -Xms128m -Xmx256m -server -cp /usr/IBM/SPSS/AnalyticsServer/15.0/bin/../ae_wlpserver/usr/servers/aeserver/apps/AE_BOOT.war/WEB-INF/lib/derbynet.jar:/usr/IBM/SPSS/AnalyticsServer/15.0/bin/../ae_wlpserver/usr/servers/aeserver/apps/AE_BOOT.war/WEB-INF/lib/derbytools.jar: org.apache.derby.drda.NetworkServerControl start
-root     27016     1  6 13:26 pts/0    00:00:19 /usr/IBM/SPSS/AnalyticsServer/15.0/jre/bin/java -XX:MaxPermSize=256m -Xms512M -Xmx2048M -Dconfig.folder.path=/usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration -Dlog4j.configuration=file:////usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration/log4j.xml -Dderby.system.home=/usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver -Dclient.encoding.override=UTF-8 -javaagent:/usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/lib/bootstrap-agent.jar -jar /usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/lib/ws-launch.jar aeserver --clean
-root     27097 27016  1 13:27 pts/0    00:00:03 /usr/IBM/SPSS/AnalyticsServer/15.0/jre/bin/java -Dlogger.id=localhost-1200/ -Dconfig.profile= -Dconfig.folder.path=/usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration -Dlog4j.configuration=file:////usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration/log4j.xml -Djava.library.path=/usr/IBM/SPSS/AnalyticsServer/15.0/jre/lib/amd64/default:/usr/IBM/SPSS/AnalyticsServer/15.0/jre/lib/amd64:/usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration/lib_32:/usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration/lib_64::/usr/lib -Xms256m -Xmx2048m -server -Das.child.proc.group=1 -cp apps/AE_BOOT.war/WEB-INF/lib/* com.spss.executionprocess.Main -maxconnections 10 -port 1200
-root     27105 27016  1 13:27 pts/0    00:00:03 /usr/IBM/SPSS/AnalyticsServer/15.0/jre/bin/java -Dlogger.id=localhost-1201/ -Dconfig.profile= -Dconfig.folder.path=/usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration -Dlog4j.configuration=file:////usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration/log4j.xml -Djava.library.path=/usr/IBM/SPSS/AnalyticsServer/15.0/jre/lib/amd64/default:/usr/IBM/SPSS/AnalyticsServer/15.0/jre/lib/amd64:/usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration/lib_32:/usr/IBM/SPSS/AnalyticsServer/15.0/ae_wlpserver/usr/servers/aeserver/configuration/lib_64::/usr/lib -Xms256m -Xmx2048m -server -Das.child.proc.group=1 -cp apps/AE_BOOT.war/WEB-INF/lib/* com.spss.executionprocess.Main -maxconnections 10 -port 1201
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_spss_batch_16] -d rhel -j '{"source_path":"http://172.16.1.153","dirpath":"/usr/IBM/SPSS/ModelerBatchServer"}'
 </t>
   </si>
   <si>
@@ -456,6 +309,188 @@
   </si>
   <si>
     <t>Yes. Created separate repo file to support this.</t>
+  </si>
+  <si>
+    <t>Installable File Name</t>
+  </si>
+  <si>
+    <t>IS_BIGINSIGHTS_EE_V2.1.2_LNX64.tar.gz</t>
+  </si>
+  <si>
+    <t>spss_mod_svr_16.0_linux_ml.bin</t>
+  </si>
+  <si>
+    <t>Dependency Libraries</t>
+  </si>
+  <si>
+    <t>zlib-1.2.3-25.el6.x86_64.rpm
+pam-1.1.1-4.el6.x86_64.rpm
+glibc-2.12-1.7.el6.x86_64.rpm
+libstdc++-4.4.4-13.el6.x86_64.rpm
+libgcc-4.4.4-13.el6.x86_64.rpm
+audit-libs-2.0.4-1.el6.x86_64.rpm
+nss-softokn-freebl-3.12.7-1.1.el6.x86_64.rpm</t>
+  </si>
+  <si>
+    <t>Dependency library information can be found in SPSS Modeler Documentation Help.
+Should we automate depedency libraries installation from cookbook ?</t>
+  </si>
+  <si>
+    <t>anl_svr_1.0.1.0_l86_en_.tar.gz</t>
+  </si>
+  <si>
+    <t>mongodb-org-server-2.6.0-1.x86_64.rpm
+ mongodb-org-mongos-2.6.0-1.x86_64.rpm
+ mongodb-org-shell-2.6.0-1.x86_64.rpm
+ mongodb-org-tools-2.6.0-1.x86_64.rpm
+ mongodb-org-2.6.0-1.x86_64.rpm</t>
+  </si>
+  <si>
+    <t>postgresql93-libs-9.3.1-1PGDG.rhel6.x86_64.rpm
+ postgresql93-9.3.1-1PGDG.rhel6.x86_64.rpm
+ postgresql93-server-9.3.1-1PGDG.rhel6.x86_64.rpm</t>
+  </si>
+  <si>
+    <t>spss_mod_Btch_16.0_linux_ml.bin</t>
+  </si>
+  <si>
+    <t>DB2_Svr_V10.5_Linux_x86-64.tar.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> libaio
+ dapl
+ sg3_utils
+ libibcm
+ ibsim
+ ibutils
+ libcxgb3
+ libipathverbs
+ libibmad
+ libibumad
+ libipathverbs
+ libmthca
+ libnes
+ rdma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command : ps -aef | grep -i db2
+It should show
+db2das1   470417       1  0 00:27 ?        00:00:00 /home/db2das1/das/adm/db2dasrrm
+root      479391       1  0 00:28 ?        00:00:00 db2wdog 0 [db2inst1]
+db2inst1  479393  479391  0 00:28 ?        00:00:00 db2sysc 0
+root      479394  479393  0 00:28 ?        00:00:00 db2ckpwd 0
+root      479395  479393  0 00:28 ?        00:00:00 db2ckpwd 0
+root      479396  479393  0 00:28 ?        00:00:00 db2ckpwd 0
+db2inst1  479405  479391  0 00:28 ?        00:00:00 db2vend (PD Vendor Process - 1) 0                                                                                   
+db2inst1  479428  479391  0 00:28 ?        00:00:00 db2acd 0 ,0,0,0,1,0,0,0,0000,1,0,9959d0,14,1e014,2,0,1,11fc0,0x210000000,0x210000000,1600000,a90008,2,c78038
+</t>
+  </si>
+  <si>
+    <t>knife bootstrap 172.16.1.154 -x root -P test4pass -r role[role_spss_analytics] -d rhel -j '{"spss_analytics": {"source_path":"http://172.16.1.153","dirpath":"/usr/IBM/SPSS/AnalyticsServer"}}'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command : ps -aef |grep -i analytics
+It should show output as
+root      751321       1  0 19:48 ?        00:00:02 java -Xms128m -Xmx256m -server -cp /usr/IBM/SPSS/AnalyticsServer/bin/../ae_wlpserver/usr/servers/aeserver/apps/AE_BOOT.war/WEB-INF/lib/derbynet.jar:/usr/IBM/SPSS/AnalyticsServer/bin/../ae_wlpserver/usr/servers/aeserver/apps/AE_BOOT.war/WEB-INF/lib/derbytools.jar: org.apache.derby.drda.NetworkServerControl start
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Command :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_spss_analytics] -d &lt;distribution&gt;  -j '{"spss_analytics": {"source_path":"URL","dirpath":"spss_analytics_server_home"}}'
+Where
+       IP : IP address of node where SPSS analytics Server need to install
+       Password : Root password of IP address of node
+       Distribution : Target distribution available
+       URL : HTTP path mentioned SPSS Analytics tar.gz file available.
+       spss_analytics_server_home : SPSS Analytics Server Home Directory.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Command :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_spss_modeler_16] -d &lt;distribution&gt;  -j '{"spss_modeler": {"source_path":"URL","dirpath":"spss_modeler_server_home"}}'
+Where
+      IP : IP address of node where SPSS Modeler Server need to install
+      Password : Root password of IP address of node
+      Distribution : Target distribution available
+      URL : HTTP path mentioned in `Installable` section
+      spss_modeler_server_home : SPSS Modeler Server Home Directory</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_spss_modeler_16] -d rhel -j '{"spss_modeler": {"source_path":"http://172.16.1.153","dirpath":"/usr/IBM/SPSS/ModelerServer/16.0"}}' 
+      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_spss_batch_16] -d rhel -j '{"spss_modeler_batch": {"source_path":"http://172.16.1.153","dirpath":"/usr/IBM/SPSS/ModelerBatchServer"}}'
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Command :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_spss_batch_16] -d &lt;distribution&gt;  -j '{"spss_modeler_batch": {"source_path":"URL","dirpath":"spss_batch_server_home"}}'
+Where
+        IP : IP address of node where SPSS Modeler Batch Server need to install
+       Password : Root password of IP address of node
+       Distribution : Target distribution available
+       URL : HTTP path mentioned in `Installable` section
+       spss_batch_server_home : SPSS Modeler Batch Server Home Directory</t>
+    </r>
   </si>
   <si>
     <r>
@@ -478,138 +513,107 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 
- knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_mongodb] -d &lt;distribution&gt;  -j '{"source_path":"URL","mongodb_port":"27017","replicasetname":"rs1"}'
+knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_mongodb] -d &lt;distribution&gt;  -j '{"mongodb": {"source_path":"URL"}}'
  where
   IP : IP address of node where MongoDB need to install
   Password : Root password of IP address of node
   Distribution : Target distribution available
-  URL : Repository Path where MongoDB RPMs are found
-  mongodb_port : Port for MongoDB
-  replicasetname : Name for replicaset </t>
+  URL : Repository Path where MongoDB RPMs are found</t>
     </r>
   </si>
   <si>
-    <t>Installable File Name</t>
-  </si>
-  <si>
-    <t>IS_BIGINSIGHTS_EE_V2.1.2_LNX64.tar.gz</t>
-  </si>
-  <si>
-    <t>spss_mod_svr_16.0_linux_ml.bin</t>
-  </si>
-  <si>
-    <t>Dependency Libraries</t>
-  </si>
-  <si>
-    <t>zlib-1.2.3-25.el6.x86_64.rpm
-pam-1.1.1-4.el6.x86_64.rpm
-glibc-2.12-1.7.el6.x86_64.rpm
-libstdc++-4.4.4-13.el6.x86_64.rpm
-libgcc-4.4.4-13.el6.x86_64.rpm
-audit-libs-2.0.4-1.el6.x86_64.rpm
-nss-softokn-freebl-3.12.7-1.1.el6.x86_64.rpm</t>
-  </si>
-  <si>
-    <t>Dependency library information can be found in SPSS Modeler Documentation Help.
-Should we automate depedency libraries installation from cookbook ?</t>
-  </si>
-  <si>
-    <t>anl_svr_1.0.1.0_l86_en_.tar.gz</t>
-  </si>
-  <si>
-    <t>mongodb-org-server-2.6.0-1.x86_64.rpm
- mongodb-org-mongos-2.6.0-1.x86_64.rpm
- mongodb-org-shell-2.6.0-1.x86_64.rpm
- mongodb-org-tools-2.6.0-1.x86_64.rpm
- mongodb-org-2.6.0-1.x86_64.rpm</t>
-  </si>
-  <si>
-    <t>postgresql93-libs-9.3.1-1PGDG.rhel6.x86_64.rpm
- postgresql93-9.3.1-1PGDG.rhel6.x86_64.rpm
- postgresql93-server-9.3.1-1PGDG.rhel6.x86_64.rpm</t>
-  </si>
-  <si>
-    <t>knife bootstrap 172.16.1.154 -x root -P test4pass -r role[role_postgresql] -d rhel -j '{"source_path":"http://172.16.0.10:8080/redhat/rhel/6Server/PSL/"}'</t>
-  </si>
-  <si>
-    <t>spss_mod_Btch_16.0_linux_ml.bin</t>
-  </si>
-  <si>
-    <t>DB2_Svr_V10.5_Linux_x86-64.tar.gz</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Command :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_spss_analytics] -d &lt;distribution&gt;  -j '{"source_path":"URL","dirpath":"spss_analytics_server_home"}'
+    <t xml:space="preserve">knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_mongodb] -d rhel -j '{"mongodb": {"source_path":"http://172.16.1.153"}}'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[root@tigris2 jvm]# ps -aef | grep -i mongodb
+mongod      1307       1  0 Aug14 ?        00:53:00 /usr/bin/mongod --config /etc/mongodb.conf
+</t>
+  </si>
+  <si>
+    <t>knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_java] -d &lt;distribution&gt;  -j '{"java": {"source_path":"URL"}}'
+ where
+       IP : IP address of node, Where we want to install java.
+      Password : Root password of IP address of node
+      Distribution : Target distribution available
+      URL : HTTP path mentioned in `Installable` section</t>
+  </si>
+  <si>
+    <t>knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_java] -d rhel -j '{"java": {"source_path":"http://172.16.1.153"}}'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_db2] -d &lt;distribution&gt;  -j '{"db2": {"source_path":"URL","repo_path":"REPO_URL"}}'
+ where
+      IP Address : IP address of node, Where we want to install db2.
+      Password : Root password of IP address of node
+      Distribution : Target distribution available
+      URL : HTTP path mentioned in `Installable` section
+      REPO_URL : Repository path where required libraries are available. </t>
+  </si>
+  <si>
+    <t>knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_db2] -d rhel -j '{"db2": {"source_path":"http://172.16.1.153","repo_path":"http://172.16.0.10:8080/redhat/rhel/6Server/x86_64"}}'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap 172.16.1.184 -x root -P test4pass -r role[role_biginsights] -d rhel -j '{"biginsights": {"source_path":"http://172.16.1.153","rpm_path":"http://172.16.0.10:8080/redhat/rhel/6Server/x86_64/","sso_domain":"domain1","node_name":"fat-euphrates"}}'                                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_biginsights] -d &lt;distribution&gt;  -j '{"biginsights": {"source_path":"URL","rpm_path":"RPM_URL","sso_domain":"SSO_DOMAIN","node_name":"NODE_NAME"}}'  
 Where
-            spss_analytics_server_home : SPSS Analytics Server Home Directory.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">knife bootstrap &lt;IP Address&gt; -x root –P &lt;password&gt; -r role[role_db2] –d &lt;distribution&gt; -j '{"source_path":"URL","repo_path":"REPO_URL"}'
+        IP : IP address of node where BigInsights need to install
+        Password : Root password of IP address of node
+        Distribution : Target distribution available
+        URL : HTTP path mentioned in `Installable` section
+        RPM_URL : RPM Path where you will find the required libraries mentioned above
+        SSO_DOMAIN : SSO Domain name 
+        NODE_NAME : Fully qualified name of target name. Don't provide any IP address. 
+                                                          </t>
+  </si>
+  <si>
+    <t>expect
+ntp</t>
+  </si>
+  <si>
+    <t>knife bootstrap 172.16.1.154 -x root -P test4pass -r role[role_postgresql] -d rhel -j '{"postgresql": {"source_path":"http://172.16.0.10:8080/redhat/rhel/6Server/PSL/"}}'</t>
+  </si>
+  <si>
+    <t>knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_postgresql] -d &lt;distribution&gt;  -j '{"postgresql": {"source_path":"URL"}}'
  where
-  IP Address : IP address of node, Where we want to install db2.
+  IP : IP address of node where postgresql need to install
   Password : Root password of IP address of node
   Distribution : Target distribution available
-  URL : HTTP path mentioned in `Installable` section
-  REPO_URL : Repository path where required libraries are available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_db2] -d rhel -j '{"source_path":"http://172.16.1.153","repo_path":"http://172.16.0.10:8080/redhat/rhel/6Server/x86_64"}' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> libaio
- dapl
- sg3_utils
- libibcm
- ibsim
- ibutils
- libcxgb3
- libipathverbs
- libibmad
- libibumad
- libipathverbs
- libmthca
- libnes
- rdma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command : ps -aef | grep -i db2
-It should show
-db2das1   470417       1  0 00:27 ?        00:00:00 /home/db2das1/das/adm/db2dasrrm
-root      479391       1  0 00:28 ?        00:00:00 db2wdog 0 [db2inst1]
-db2inst1  479393  479391  0 00:28 ?        00:00:00 db2sysc 0
-root      479394  479393  0 00:28 ?        00:00:00 db2ckpwd 0
-root      479395  479393  0 00:28 ?        00:00:00 db2ckpwd 0
-root      479396  479393  0 00:28 ?        00:00:00 db2ckpwd 0
-db2inst1  479405  479391  0 00:28 ?        00:00:00 db2vend (PD Vendor Process - 1) 0                                                                                   
-db2inst1  479428  479391  0 00:28 ?        00:00:00 db2acd 0 ,0,0,0,1,0,0,0,0000,1,0,9959d0,14,1e014,2,0,1,11fc0,0x210000000,0x210000000,1600000,a90008,2,c78038
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knife bootstrap 172.16.1.152  -x root -P test4pass -r role[role_mongodb] -d rhel  -j '{"source_path":"http://172.16.0.10:8080/redhat/rhel/6Server/PSL/","mongodb_port":"27017","replicasetname":"rs1"}' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knife bootstrap 172.16.1.152  -x root -P test4pass -r role[role_tomcat] -d rhel -j '{"source_path":"http://172.16.1.153","base_version":"7","full_version":"7.0.52"}' </t>
+  URL : YUM repository path for postgresql RPMs</t>
+  </si>
+  <si>
+    <t>openssl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_tomcat] -d &lt;distribution&gt;  -j '{"tomcat": {"source_path":"URL","base_version":"base_version","full_version":"full_version"}}'
+ where
+         IP : IP address of node where Tomcat need to install
+         Password : Root password of IP address of node
+         Distribution : Target distribution available
+         URL : HTTP path where tomcat tar.gz file avaiable.
+         base_version : Base version number of Tomcat version.
+         full_version : Full version number of Tomcat versipon </t>
+  </si>
+  <si>
+    <t>knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_tomcat] -d rhel -j '{"tomcat": {"source_path":"http://172.16.1.153","base_version":"7","full_version":"7.0.52"}}'</t>
+  </si>
+  <si>
+    <t>User can install any tomcat version for RHEL 6.4. Make sure, you download "apache-tomcat-X.X.XX.tar.gz" for installation
+In case, tomcat unable to start, please follow the steps mentioned in README_New.md to start tomcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+ "name": "role_tomcat",
+   "description": "Cookbook to install Tomcat",
+   "json_class": "Chef::Role",
+   "default_attributes": {    },
+   "override_attributes": {    },
+   "chef_type": "role",
+   "run_list": [  "recipe[tomcat-master]"    ],
+    "env_run_lists": {    }</t>
   </si>
 </sst>
 </file>
@@ -706,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,8 +750,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -760,9 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,13 +1099,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -1116,16 +1117,16 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1142,344 +1143,344 @@
       <c r="K3" s="8"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6" t="s">
-        <v>77</v>
+      <c r="J7" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6">
         <v>10.5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="8" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="10" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Cookbook_Details.xlsx
+++ b/Cookbook_Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>Cookbook Name</t>
   </si>
@@ -383,15 +383,6 @@
 root      479396  479393  0 00:28 ?        00:00:00 db2ckpwd 0
 db2inst1  479405  479391  0 00:28 ?        00:00:00 db2vend (PD Vendor Process - 1) 0                                                                                   
 db2inst1  479428  479391  0 00:28 ?        00:00:00 db2acd 0 ,0,0,0,1,0,0,0,0000,1,0,9959d0,14,1e014,2,0,1,11fc0,0x210000000,0x210000000,1600000,a90008,2,c78038
-</t>
-  </si>
-  <si>
-    <t>knife bootstrap 172.16.1.154 -x root -P test4pass -r role[role_spss_analytics] -d rhel -j '{"spss_analytics": {"source_path":"http://172.16.1.153","dirpath":"/usr/IBM/SPSS/AnalyticsServer"}}'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command : ps -aef |grep -i analytics
-It should show output as
-root      751321       1  0 19:48 ?        00:00:02 java -Xms128m -Xmx256m -server -cp /usr/IBM/SPSS/AnalyticsServer/bin/../ae_wlpserver/usr/servers/aeserver/apps/AE_BOOT.war/WEB-INF/lib/derbynet.jar:/usr/IBM/SPSS/AnalyticsServer/bin/../ae_wlpserver/usr/servers/aeserver/apps/AE_BOOT.war/WEB-INF/lib/derbytools.jar: org.apache.derby.drda.NetworkServerControl start
 </t>
   </si>
   <si>
@@ -555,21 +546,6 @@
     <t>knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_db2] -d rhel -j '{"db2": {"source_path":"http://172.16.1.153","repo_path":"http://172.16.0.10:8080/redhat/rhel/6Server/x86_64"}}'</t>
   </si>
   <si>
-    <t xml:space="preserve">knife bootstrap 172.16.1.184 -x root -P test4pass -r role[role_biginsights] -d rhel -j '{"biginsights": {"source_path":"http://172.16.1.153","rpm_path":"http://172.16.0.10:8080/redhat/rhel/6Server/x86_64/","sso_domain":"domain1","node_name":"fat-euphrates"}}'                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_biginsights] -d &lt;distribution&gt;  -j '{"biginsights": {"source_path":"URL","rpm_path":"RPM_URL","sso_domain":"SSO_DOMAIN","node_name":"NODE_NAME"}}'  
-Where
-        IP : IP address of node where BigInsights need to install
-        Password : Root password of IP address of node
-        Distribution : Target distribution available
-        URL : HTTP path mentioned in `Installable` section
-        RPM_URL : RPM Path where you will find the required libraries mentioned above
-        SSO_DOMAIN : SSO Domain name 
-        NODE_NAME : Fully qualified name of target name. Don't provide any IP address. 
-                                                          </t>
-  </si>
-  <si>
     <t>expect
 ntp</t>
   </si>
@@ -614,6 +590,47 @@
    "chef_type": "role",
    "run_list": [  "recipe[tomcat-master]"    ],
     "env_run_lists": {    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap &lt;IP&gt; -x root -P &lt;password&gt; -r role[role_biginsights] -d &lt;distribution&gt;  -j '{"biginsights": {"source_path":"URL"}}'  
+Where
+        IP : IP address of node where BigInsights need to install
+        Password : Root password of IP address of node
+        Distribution : Target distribution available
+        URL : HTTP path mentioned in `Installable` section                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap 172.16.1.184 -x root -P test4pass -r role[role_biginsights] -d rhel -j '{"biginsights": {"source_path":"http://172.16.1.153"}}'                                                                                                   </t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>{
+ "name": "role_biginsights_2",
+   "description": "BigInsight Cookbook",
+   "json_class": "Chef::Role",
+   "default_attributes": {   },
+   "override_attributes": {    },
+   "chef_type": "role",
+   "run_list": ["recipe[Biginsights2.1.1]"   ],
+    "env_run_lists": {   }
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap 172.16.1.184 -x root -P test4pass -r role[role_biginsights_2] -d rhel -j '{"biginsights": {"source_path":"http://172.16.1.153"}}'                                                                                                   </t>
+  </si>
+  <si>
+    <t>IS_BIGINSIGHTS_EE_2.1.1.tar.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife bootstrap 172.16.1.152 -x root -P test4pass -r role[role_spss_analytics] -d rhel -j '{"spss_analytics": {"source_path":"http://172.16.1.153","dirpath":"/opt/IBM/SPSS/AnalyticsServer/1.0.1"}}' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command : ps -aef |grep -i analytics
+It should show output as
+root      751321       1  0 19:48 ?        00:00:02 java -Xms128m -Xmx256m -server -cp /opt/IBM/SPSS/AnalyticsServer/1.0.1/bin/../ae_wlpserver/usr/servers/aeserver/apps/AE_BOOT.war/WEB-INF/lib/derbynet.jar:/opt/IBM/SPSS/AnalyticsServer/1.0.1/bin/../ae_wlpserver/usr/servers/aeserver/apps/AE_BOOT.war/WEB-INF/lib/derbytools.jar: org.apache.derby.drda.NetworkServerControl start
+</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1160,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1160,10 +1177,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>35</v>
@@ -1173,229 +1190,228 @@
         <v>51</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="G7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="13"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I8" s="8"/>
       <c r="J8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="9"/>
+        <v>59</v>
+      </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="H10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
         <v>10.5</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -1404,82 +1420,117 @@
       <c r="H11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7" t="s">
-        <v>6</v>
+      <c r="I11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="E13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8" t="s">
-        <v>85</v>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="C14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="E14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
+      <c r="K14" s="19"/>
+      <c r="L14" s="19" t="s">
         <v>28</v>
       </c>
     </row>
